--- a/biology/Botanique/Garden_Museum/Garden_Museum.xlsx
+++ b/biology/Botanique/Garden_Museum/Garden_Museum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Garden Museum, anciennement Museum of Garden History, est un musée, créé en 1980, consacré à l'histoire du jardinage en Angleterre. Il se situe sur Lambeth Road (en) à St Mary-at-Lambeth, une église paroissiale désacralisée située près du Lambeth Palace, à Londres.
 De l'église, le musée a hérité d'un petit cimetière où sont enterrés Thomas Howard, Agnès Tilney, Elizabeth Howard, John Tradescant l'Ancien, John Tradescant le Jeune ou encore William Bligh.
-Il met en avant les outils utilisés par les jardiniers au fil des siècles [1]
+Il met en avant les outils utilisés par les jardiniers au fil des siècles 
 </t>
         </is>
       </c>
@@ -514,13 +526,50 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée présente l'histoire de jardins anglais, leurs différents styles selon les époques, mais aussi le knot garden : représentation d'un jardin du XVIIe siècle.
 Des collections temporaires sont exposées, des conférences et des ateliers de jardinage sont organisés régulièrement. Le festival of Garden Literature a lieu en juin.
-Plus de 6000 objets sont présentés et couvrent 400 ans de jardinage[2] que cela soit dans des grands jardins de campagne ou petits espaces de ville.
-Outils exposés
-Plusieurs outils sont exposés au sein du musée :
+Plus de 6000 objets sont présentés et couvrent 400 ans de jardinage que cela soit dans des grands jardins de campagne ou petits espaces de ville.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Garden_Museum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garden_Museum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Outils exposés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs outils sont exposés au sein du musée :
 			Lame.
 			Cisailles.
 			Couteaux.
